--- a/story/Activity Story 活动剧情/act11d0 Twilight of Wolumonde 沃伦姆德的薄暮 ウォルモンドの薄暮/level_act11d0_02_end.xlsx
+++ b/story/Activity Story 活动剧情/act11d0 Twilight of Wolumonde 沃伦姆德的薄暮 ウォルモンドの薄暮/level_act11d0_02_end.xlsx
@@ -1612,7 +1612,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="세버린"]  그 감염자 무리에 고등 교육을 받은 라이타니엔 사람 하나만 있어도, 그것들을 탈취하는 건 일도 아니라고.
+    <t xml:space="preserve">[name="세버린"]  그 감염자 무리에 고등 교육을 받은 라이타니아 사람 하나만 있어도, 그것들을 탈취하는 건 일도 아니라고.
 </t>
   </si>
   <si>
@@ -1712,7 +1712,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="세버린"]  다 그놈의 혈통 때문에 그런 거지. 고귀한 라이타니엔인들은 신분을 버리고 추잡한 일은 하지 못해. 지금 상황에서 조금만 더 심각해지면, 이곳은 생지옥이 될 걸세.
+    <t xml:space="preserve">[name="세버린"]  다 그놈의 혈통 때문에 그런 거지. 고귀한 라이타니아인들은 신분을 버리고 추잡한 일은 하지 못해. 지금 상황에서 조금만 더 심각해지면, 이곳은 생지옥이 될 걸세.
 </t>
   </si>
   <si>

--- a/story/Activity Story 活动剧情/act11d0 Twilight of Wolumonde 沃伦姆德的薄暮 ウォルモンドの薄暮/level_act11d0_02_end.xlsx
+++ b/story/Activity Story 活动剧情/act11d0 Twilight of Wolumonde 沃伦姆德的薄暮 ウォルモンドの薄暮/level_act11d0_02_end.xlsx
@@ -1080,7 +1080,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Councilor"]  I’m not sure. But the “Gramophone” didn’t start...
+    <t xml:space="preserve">[name="Councilor"]  I’m not sure. But the 'Gramophone' didn’t start...
 </t>
   </si>
   <si>
@@ -1132,7 +1132,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Severin"]  Before we lay it all out for Rhodes Island, we have to be sure what kind of company they are. We have to know if they’re Atro’s kind of Infected, or “the other” kind.
+    <t xml:space="preserve">[name="Severin"]  Before we lay it all out for Rhodes Island, we have to be sure what kind of company they are. We have to know if they’re Atro’s kind of Infected, or 'the other' kind.
 </t>
   </si>
   <si>
@@ -1168,7 +1168,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Townsfolk"]  Everyone here is ready to fight. And we have the L-44 “Gramophone” defense system.
+    <t xml:space="preserve">[name="Townsfolk"]  Everyone here is ready to fight. And we have the L-44 'Gramophone' defense system.
 </t>
   </si>
   <si>
@@ -1320,7 +1320,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Folinic"]  Did you just say “Dr. Atro?”
+    <t xml:space="preserve">[name="Folinic"]  Did you just say 'Dr. Atro?'
 </t>
   </si>
   <si>
@@ -1592,7 +1592,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Tatjana"]  Dr. Atro said the same thing—”Rhodes Island won’t abandon you.”
+    <t xml:space="preserve">[name="Tatjana"]  Dr. Atro said the same thing—'Rhodes Island won’t abandon you.'
 </t>
   </si>
   <si>

--- a/story/Activity Story 活动剧情/act11d0 Twilight of Wolumonde 沃伦姆德的薄暮 ウォルモンドの薄暮/level_act11d0_02_end.xlsx
+++ b/story/Activity Story 活动剧情/act11d0 Twilight of Wolumonde 沃伦姆德的薄暮 ウォルモンドの薄暮/level_act11d0_02_end.xlsx
@@ -1080,7 +1080,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Councilor"]  I’m not sure. But the 'Gramophone' didn’t start...
+    <t xml:space="preserve">[name="Councilor"]  I'm not sure. But the 'Gramophone' didn't start...
 </t>
   </si>
   <si>
@@ -1092,7 +1092,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Councilor"]  Too late for that. The Infected quarter is crawling with them. They’re whipping them up.
+    <t xml:space="preserve">[name="Councilor"]  Too late for that. The Infected quarter is crawling with them. They're whipping them up.
 </t>
   </si>
   <si>
@@ -1100,7 +1100,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Townsfolk"]  B-but there are more and more protesters every day. They’re gathering up and—
+    <t xml:space="preserve">[name="Townsfolk"]  B-but there are more and more protesters every day. They're gathering up and—
 </t>
   </si>
   <si>
@@ -1120,11 +1120,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Severin"]  They don’t give a rat’s ass about the fire. Just you wait, everyone will forget what this was about soon enough.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Townsfolk"]  What should we do? Rhodes Island is already here. It’s only a matter of time before they find out.
+    <t xml:space="preserve">[name="Severin"]  They don't give a rat's ass about the fire. Just you wait, everyone will forget what this was about soon enough.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Townsfolk"]  What should we do? Rhodes Island is already here. It's only a matter of time before they find out.
 </t>
   </si>
   <si>
@@ -1132,15 +1132,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Severin"]  Before we lay it all out for Rhodes Island, we have to be sure what kind of company they are. We have to know if they’re Atro’s kind of Infected, or 'the other' kind.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Townsfolk"]  I’m not sure that’s right... Won’t things just get worse once they find out on their own what we’re hiding?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Severin"]  Ha... Think what you will. If they’re the type to turn the other cheek, that’s what they’ll do. You and I both know what’s going on here in Wolumonde.
+    <t xml:space="preserve">[name="Severin"]  Before we lay it all out for Rhodes Island, we have to be sure what kind of company they are. We have to know if they're Atro's kind of Infected, or 'the other' kind.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Townsfolk"]  I'm not sure that's right... Won't things just get worse once they find out on their own what we're hiding?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Severin"]  Ha... Think what you will. If they're the type to turn the other cheek, that's what they'll do. You and I both know what's going on here in Wolumonde.
 </t>
   </si>
   <si>
@@ -1148,7 +1148,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Severin"]  —Then don’t try to play the good guy here. Things don’t work out for the good guys. We need to focus on outcomes.
+    <t xml:space="preserve">[name="Severin"]  —Then don't try to play the good guy here. Things don't work out for the good guys. We need to focus on outcomes.
 </t>
   </si>
   <si>
@@ -1156,15 +1156,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Townsfolk"]  They haven’t made formal contact yet...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Severin"]  They’re a bunch of vultures, stirring up our people, looking to divide and conquer. How trite of them.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Severin"]  They’re playing it cool, probing our defenses. When they’re sure there’s no Gendarmerie garrisoned in Wolumonde...
+    <t xml:space="preserve">[name="Townsfolk"]  They haven't made formal contact yet...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Severin"]  They're a bunch of vultures, stirring up our people, looking to divide and conquer. How trite of them.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Severin"]  They're playing it cool, probing our defenses. When they're sure there's no Gendarmerie garrisoned in Wolumonde...
 </t>
   </si>
   <si>
@@ -1172,27 +1172,27 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Severin"]  But you’re not Gendarmerie... *Sigh*, I’m just trying not to get anyone killed, *cough*— *cough* *cough* *hack*—
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Townsfolk"]  Take care of yourself. Wolumonde can’t afford to lose you.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Severin"]  Really? I don’t think it makes much difference...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Townsfolk"]  Who else could keep Wolumonde’s defenses up without a single Gendarmerie?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Severin"]  It’s just stubborn blood. Leithanien nobles won’t stoop to doing their own dirty work. Give them one more push and you’ll see this place go to hell in a handbasket.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Severin"]  If we don’t come up with something soon, this game is over.
+    <t xml:space="preserve">[name="Severin"]  But you're not Gendarmerie... *Sigh*, I'm just trying not to get anyone killed, *cough*— *cough* *cough* *hack*—
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Townsfolk"]  Take care of yourself. Wolumonde can't afford to lose you.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Severin"]  Really? I don't think it makes much difference...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Townsfolk"]  Who else could keep Wolumonde's defenses up without a single Gendarmerie?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Severin"]  It's just stubborn blood. Leithanien nobles won't stoop to doing their own dirty work. Give them one more push and you'll see this place go to hell in a handbasket.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Severin"]  If we don't come up with something soon, this game is over.
 </t>
   </si>
   <si>
@@ -1200,15 +1200,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Townsfolk"]  Maybe... Yes, you’re right.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Severin"]  It’s already getting cold, *cough*—
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Severin"]  …I hope Wolumonde still has other options.
+    <t xml:space="preserve">[name="Townsfolk"]  Maybe... Yes, you're right.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Severin"]  It's already getting cold, *cough*—
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Severin"]  ...I hope Wolumonde still has other options.
 </t>
   </si>
   <si>
@@ -1232,23 +1232,23 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Rebellious Townsfolk"]  It’s because you bureaucrats can’t do shit that Wolumonde is in this mess!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Rebellious Townsfolk"]  Why don’t you let us try running the show for a while?!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Tatjana"]  This isn’t anyone’s fault!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Rebellious Townsfolk"]  You’re just gonna call it a Catastrophe and be done with it?! It’s your fault we couldn’t steer away from it in the first place!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Folinic"]  ...You’re begging for a fight, Infected.
+    <t xml:space="preserve">[name="Rebellious Townsfolk"]  It's because you bureaucrats can't do shit that Wolumonde is in this mess!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rebellious Townsfolk"]  Why don't you let us try running the show for a while?!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Tatjana"]  This isn't anyone's fault!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rebellious Townsfolk"]  You're just gonna call it a Catastrophe and be done with it?! It's your fault we couldn't steer away from it in the first place!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Folinic"]  ...You're begging for a fight, Infected.
 </t>
   </si>
   <si>
@@ -1256,7 +1256,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Folinic"]  Even I can see that Wolumonde is in a crisis, but the non-infected are going through the same tough times as you Infected. Shouldn’t you be working together to get through this?
+    <t xml:space="preserve">[name="Folinic"]  Even I can see that Wolumonde is in a crisis, but the non-infected are going through the same tough times as you Infected. Shouldn't you be working together to get through this?
 </t>
   </si>
   <si>
@@ -1264,7 +1264,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Folinic"]  I’m a Rhodes Island Operator, an Infected doctor. We help the Infected through crises, as long as they’re not stirring up trouble for no reason.
+    <t xml:space="preserve">[name="Folinic"]  I'm a Rhodes Island Operator, an Infected doctor. We help the Infected through crises, as long as they're not stirring up trouble for no reason.
 </t>
   </si>
   <si>
@@ -1272,11 +1272,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Rebellious Townsfolk"]  Pfah! You’re here to kick us around. If I let you, that is—!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Rebellious Townsfolk"]  You want us to work together? Why don’t you ask the woman who started all this?
+    <t xml:space="preserve">[name="Rebellious Townsfolk"]  Pfah! You're here to kick us around. If I let you, that is—!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rebellious Townsfolk"]  You want us to work together? Why don't you ask the woman who started all this?
 </t>
   </si>
   <si>
@@ -1284,7 +1284,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Rebellious Townsfolk"]  Hey, you. You’re infected, aren’t you?
+    <t xml:space="preserve">[name="Rebellious Townsfolk"]  Hey, you. You're infected, aren't you?
 </t>
   </si>
   <si>
@@ -1292,15 +1292,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Rebellious Townsfolk"]  Nine-tailed Vulpos are pretty rare. Sooner or later, you’ll end up just like us.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Suzuran"]  I don’t think so... Everyone’s so nice to me...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Rebellious Townsfolk"]  For now. But that won’t last forever. Maybe not today, maybe not tomorrow, but soon enough.
+    <t xml:space="preserve">[name="Rebellious Townsfolk"]  Nine-tailed Vulpos are pretty rare. Sooner or later, you'll end up just like us.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Suzuran"]  I don't think so... Everyone's so nice to me...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rebellious Townsfolk"]  For now. But that won't last forever. Maybe not today, maybe not tomorrow, but soon enough.
 </t>
   </si>
   <si>
@@ -1332,7 +1332,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Rebellious Townsfolk"]  They’ve been pushing us out since the Great Rift appeared. They’re terrified!
+    <t xml:space="preserve">[name="Rebellious Townsfolk"]  They've been pushing us out since the Great Rift appeared. They're terrified!
 </t>
   </si>
   <si>
@@ -1340,11 +1340,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Tatjana"]  That’s not true... the Schultz isn’t like that!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Rebellious Townsfolk"]  Feh. Whatever. If that’s all it was, we’d be fine too...
+    <t xml:space="preserve">[name="Tatjana"]  That's not true... the Schultz isn't like that!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rebellious Townsfolk"]  Feh. Whatever. If that's all it was, we'd be fine too...
 </t>
   </si>
   <si>
@@ -1376,15 +1376,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Rebellious Townsfolk"]  It wasn’t an accident. It was arson. It was murder. It was self-righteous moralizers showing their true colors.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Folinic"]  I’m not your therapist. Let’s cool the emotional venting—
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Rebellious Townsfolk"]  Heh. You know what they didn’t tell you?
+    <t xml:space="preserve">[name="Rebellious Townsfolk"]  It wasn't an accident. It was arson. It was murder. It was self-righteous moralizers showing their true colors.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Folinic"]  I'm not your therapist. Let's cool the emotional venting—
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rebellious Townsfolk"]  Heh. You know what they didn't tell you?
 </t>
   </si>
   <si>
@@ -1416,31 +1416,31 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Tatjana"]  ...Behave yourself. You’re under arrest.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Rebellious Townsfolk"]  You’re no Gendarmerie! None of you are! There’s no law here! All we got is leftovers from the settlers!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Tatjana"]  The Schultz will decide your fate. I’m sorry.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Rebellious Townsfolk"]  Hmph. You wouldn’t dare kill me. You wouldn’t risk a mass Infected uprising!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Rebellious Townsfolk"]  I guess I’ll just wait for you to exile me to the wasteland so I can join up with the—
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Tatjana"]  …You and your friends are convinced that we are the ones behind all this.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Tatjana"]  But we’re all fellow citizens of Wolumonde, and we’re all a part of this town together. We’ve lived in peace for so many years—
+    <t xml:space="preserve">[name="Tatjana"]  ...Behave yourself. You're under arrest.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rebellious Townsfolk"]  You're no Gendarmerie! None of you are! There's no law here! All we got is leftovers from the settlers!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Tatjana"]  The Schultz will decide your fate. I'm sorry.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rebellious Townsfolk"]  Hmph. You wouldn't dare kill me. You wouldn't risk a mass Infected uprising!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rebellious Townsfolk"]  I guess I'll just wait for you to exile me to the wasteland so I can join up with the—
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Tatjana"]  ...You and your friends are convinced that we are the ones behind all this.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Tatjana"]  But we're all fellow citizens of Wolumonde, and we're all a part of this town together. We've lived in peace for so many years—
 </t>
   </si>
   <si>
@@ -1452,11 +1452,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Rebellious Townsfolk"]  ...Because you are not one of the Winterwisp. Nor are you Infected. You’re just a sheltered little girl.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Rebellious Townsfolk"]  You forget what it means to be Infected. You forget what Oripathy is. I know better than you. It’s that simple.
+    <t xml:space="preserve">[name="Rebellious Townsfolk"]  ...Because you are not one of the Winterwisp. Nor are you Infected. You're just a sheltered little girl.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rebellious Townsfolk"]  You forget what it means to be Infected. You forget what Oripathy is. I know better than you. It's that simple.
 </t>
   </si>
   <si>
@@ -1468,7 +1468,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Suzuran"]  Yes, we’re fine!
+    <t xml:space="preserve">[name="Suzuran"]  Yes, we're fine!
 </t>
   </si>
   <si>
@@ -1480,7 +1480,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Militiaman"]  We’ll make sure they don’t do anything else. But Miss Tatjana, what of the two from Rhodes Island?
+    <t xml:space="preserve">[name="Militiaman"]  We'll make sure they don't do anything else. But Miss Tatjana, what of the two from Rhodes Island?
 </t>
   </si>
   <si>
@@ -1488,7 +1488,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Militiaman"]  Very well. Then, we’ll go on ahead.
+    <t xml:space="preserve">[name="Militiaman"]  Very well. Then, we'll go on ahead.
 </t>
   </si>
   <si>
@@ -1504,7 +1504,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Tatjana"]  I don’t know what Schultz Severin and the councilors are thinking. But I believe... Miss Folinic and Miss Suzuran, I believe you deserve to know the truth.
+    <t xml:space="preserve">[name="Tatjana"]  I don't know what Schultz Severin and the councilors are thinking. But I believe... Miss Folinic and Miss Suzuran, I believe you deserve to know the truth.
 </t>
   </si>
   <si>
@@ -1512,15 +1512,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Folinic"]  You’re wasting time. I just want to know... is she alive?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Tatjana"]  I... I don’t know...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Folinic"]  You don’t know?!
+    <t xml:space="preserve">[name="Folinic"]  You're wasting time. I just want to know... is she alive?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Tatjana"]  I... I don't know...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Folinic"]  You don't know?!
 </t>
   </si>
   <si>
@@ -1536,31 +1536,31 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Tatjana"]  Please understand, we don’t know what Rhodes Island is like. We had to be sure we could trust—
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Folinic"]  Even if we were ruthless, cold-blooded corporate raiders out to make everything worse for Wolumonde, that’s no excuse for you to deceive our people!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Tatjana"]  I’m sorry... I really am...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Tatjana"]  We were planning to tell you the truth...! We, we’ve been doing everything we can to investigate the Infected outside the town!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Tatjana"]  But I know. I know that’s all just for our own sake. It’s no excuse...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Folinic"]  Exactly right. You’re making excuses. But... it’s fine.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Folinic"]  All I want... is the truth. Rhodes Island won’t abandon you. We wouldn’t look past a town suffering a crisis like this.
+    <t xml:space="preserve">[name="Tatjana"]  Please understand, we don't know what Rhodes Island is like. We had to be sure we could trust—
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Folinic"]  Even if we were ruthless, cold-blooded corporate raiders out to make everything worse for Wolumonde, that's no excuse for you to deceive our people!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Tatjana"]  I'm sorry... I really am...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Tatjana"]  We were planning to tell you the truth...! We, we've been doing everything we can to investigate the Infected outside the town!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Tatjana"]  But I know. I know that's all just for our own sake. It's no excuse...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Folinic"]  Exactly right. You're making excuses. But... it's fine.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Folinic"]  All I want... is the truth. Rhodes Island won't abandon you. We wouldn't look past a town suffering a crisis like this.
 </t>
   </si>
   <si>
@@ -1568,11 +1568,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Folinic"]  That would make Atro very unhappy. She’s such a baby whenever she gets sad. And I hate seeing her cry.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Folinic"]  It’s not too late. For either of us.
+    <t xml:space="preserve">[name="Folinic"]  That would make Atro very unhappy. She's such a baby whenever she gets sad. And I hate seeing her cry.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Folinic"]  It's not too late. For either of us.
 </t>
   </si>
   <si>
@@ -1580,7 +1580,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Suzuran"]  Miss Tatjana, there’s so much we can do if we just trust each other!
+    <t xml:space="preserve">[name="Suzuran"]  Miss Tatjana, there's so much we can do if we just trust each other!
 </t>
   </si>
   <si>
@@ -1592,7 +1592,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Tatjana"]  Dr. Atro said the same thing—'Rhodes Island won’t abandon you.'
+    <t xml:space="preserve">[name="Tatjana"]  Dr. Atro said the same thing—'Rhodes Island won't abandon you.'
 </t>
   </si>
   <si>

--- a/story/Activity Story 活动剧情/act11d0 Twilight of Wolumonde 沃伦姆德的薄暮 ウォルモンドの薄暮/level_act11d0_02_end.xlsx
+++ b/story/Activity Story 活动剧情/act11d0 Twilight of Wolumonde 沃伦姆德的薄暮 ウォルモンドの薄暮/level_act11d0_02_end.xlsx
@@ -1612,7 +1612,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="세버린"]  그 감염자 무리에 고등 교육을 받은 라이타니아 사람 하나만 있어도, 그것들을 탈취하는 건 일도 아니라고.
+    <t xml:space="preserve">[name="세버린"]  그 감염자 무리에 고등 교육을 받은 라이타니엔 사람 하나만 있어도, 그것들을 탈취하는 건 일도 아니라고.
 </t>
   </si>
   <si>
@@ -1712,7 +1712,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="세버린"]  다 그놈의 혈통 때문에 그런 거지. 고귀한 라이타니아인들은 신분을 버리고 추잡한 일은 하지 못해. 지금 상황에서 조금만 더 심각해지면, 이곳은 생지옥이 될 걸세.
+    <t xml:space="preserve">[name="세버린"]  다 그놈의 혈통 때문에 그런 거지. 고귀한 라이타니엔인들은 신분을 버리고 추잡한 일은 하지 못해. 지금 상황에서 조금만 더 심각해지면, 이곳은 생지옥이 될 걸세.
 </t>
   </si>
   <si>
